--- a/results/mass_spec/W281PvW281X_sig_proteins.xlsx
+++ b/results/mass_spec/W281PvW281X_sig_proteins.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>T: Gene names</t>
+          <t>Gene Symbol</t>
         </is>
       </c>
     </row>
